--- a/players_stats/Armon Johnson.xlsx
+++ b/players_stats/Armon Johnson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,55 +429,115 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>3P</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3PA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>3P%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2P</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2PA</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2P%</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>eFG%</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FTA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FT%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ORB</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>DRB</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TRB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>TOV</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -492,76 +552,120 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1948-49</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ROC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BAA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>277</v>
+      </c>
       <c r="K2" t="n">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.416</v>
+        <v>0.455</v>
       </c>
       <c r="N2" t="n">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>0.417</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>41</v>
+      </c>
       <c r="R2" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="S2" t="n">
-        <v>247</v>
+        <v>0.461</v>
       </c>
       <c r="T2" t="n">
-        <v>511</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 107 </t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
+        <v>0.48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V2" t="n">
+        <v>22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -572,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1949-50</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ROC</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -590,58 +694,102 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>68</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>124</v>
+      </c>
       <c r="K3" t="n">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="M3" t="n">
-        <v>0.396</v>
+        <v>0.465</v>
       </c>
       <c r="N3" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>0.333</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>19</v>
+      </c>
       <c r="R3" t="n">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="S3" t="n">
-        <v>260</v>
+        <v>0.475</v>
       </c>
       <c r="T3" t="n">
-        <v>498</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 107 </t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
+        <v>0.477</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -652,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1950-51</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ROC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,60 +818,98 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>68</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
       <c r="K4" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.459</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>449</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>639</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 107 </t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -734,15 +920,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1951-52</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ROC</t>
+          <t>NJN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -752,62 +938,102 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>66</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>2158</v>
+        <v>119</v>
       </c>
       <c r="K5" t="n">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="M5" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="N5" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>387</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.778</v>
+        <v>0.333</v>
       </c>
       <c r="Q5" t="n">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="R5" t="n">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="S5" t="n">
-        <v>259</v>
+        <v>0.462</v>
       </c>
       <c r="T5" t="n">
-        <v>657</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 107 </t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -818,17 +1044,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1952-53</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ROC</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -836,140 +1056,102 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="n">
-        <v>1984</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="L6" t="n">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="M6" t="n">
-        <v>0.379</v>
+        <v>0.458</v>
       </c>
       <c r="N6" t="n">
-        <v>303</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>405</v>
+        <v>15</v>
       </c>
       <c r="P6" t="n">
-        <v>0.748</v>
+        <v>0.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>419</v>
+        <v>60</v>
       </c>
       <c r="R6" t="n">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="S6" t="n">
-        <v>282</v>
+        <v>0.465</v>
       </c>
       <c r="T6" t="n">
-        <v>583</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 107 </t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>TOT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>332</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>4142</v>
-      </c>
-      <c r="K7" t="n">
-        <v>808</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1934</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1272</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1741</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.731</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1272</v>
-      </c>
-      <c r="R7" t="n">
-        <v>731</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1338</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2888</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 107 </t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
+        <v>0.479</v>
+      </c>
+      <c r="U6" t="n">
+        <v>19</v>
+      </c>
+      <c r="V6" t="n">
+        <v>28</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>157</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
